--- a/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
+++ b/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Projects\open_telemetry_HW\pcb\sensors\Open_Telemetry_digitalSensorShield\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF03D399-D76D-44E4-8826-F9F121BDDBA6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F885E0B-A428-4E84-A4DF-EAA5685FEA5C}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="555" windowWidth="23400" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,47 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Customer reference: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OpenFly Telemetry - OFT001v1 P1A_BOM_PBW Rev:P1A_01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-PCBWAY reference: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TBD</t>
-    </r>
-  </si>
-  <si>
     <t>Item #</t>
   </si>
   <si>
@@ -373,9 +332,6 @@
     <t>https://assets.nexperia.com/documents/data-sheet/BC846BPN.pdf</t>
   </si>
   <si>
-    <t>R1, R8, R9, R15, R16</t>
-  </si>
-  <si>
     <t>YAGEO (PHYCOMP)</t>
   </si>
   <si>
@@ -403,9 +359,6 @@
     <t>https://www.ttiinc.com/content/ttiinc/en/apps/part-detail.html?mfrShortname=YAG&amp;partsNumber=RC0201JR-071KL&amp;autoRedirect=true&amp;minQty=10000</t>
   </si>
   <si>
-    <t>R3, R5</t>
-  </si>
-  <si>
     <t>RC0201JR-07100KL</t>
   </si>
   <si>
@@ -512,6 +465,46 @@
   </si>
   <si>
     <t>0201</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer reference: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OpenFly Telemetry - OFT001v1 P1A_BOM_PBW Rev:P1A_02</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+PCBWAY reference: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W32271ASH4</t>
+    </r>
+  </si>
+  <si>
+    <t>R1, R8, R9, R15, R16, R17, R18</t>
+  </si>
+  <si>
+    <t>R3, R5, R19, R20</t>
   </si>
 </sst>
 </file>
@@ -522,12 +515,19 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,6 +604,19 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -647,57 +660,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,8 +747,8 @@
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -789,7 +809,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6886575" y="47625"/>
+          <a:off x="7477125" y="47625"/>
           <a:ext cx="2600326" cy="914400"/>
           <a:chOff x="9686925" y="238125"/>
           <a:chExt cx="1588169" cy="552450"/>
@@ -1154,14 +1174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
@@ -1178,62 +1198,62 @@
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="D2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15">
@@ -1241,29 +1261,29 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="15">
         <v>8.6999999999999994E-2</v>
@@ -1278,29 +1298,29 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="15">
         <v>7.0000000000000007E-2</v>
@@ -1315,29 +1335,29 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G9" s="7">
         <v>1311</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="15">
         <v>0.24399999999999999</v>
@@ -1352,29 +1372,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="15">
         <v>6.85</v>
@@ -1389,31 +1409,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="K11" s="15">
         <v>0.53300000000000003</v>
@@ -1428,29 +1448,29 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="15">
         <v>0.4</v>
@@ -1465,29 +1485,29 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="15">
         <v>0.66700000000000004</v>
@@ -1502,29 +1522,29 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="15">
         <v>0.96099999999999997</v>
@@ -1534,7 +1554,7 @@
         <v>4.8049999999999997</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15">
@@ -1542,29 +1562,29 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="15">
         <v>0.33300000000000002</v>
@@ -1579,29 +1599,29 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="15">
         <v>0.66700000000000004</v>
@@ -1616,29 +1636,29 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="15">
         <v>0.11799999999999999</v>
@@ -1648,44 +1668,44 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15" ht="30">
       <c r="A18" s="5">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K18" s="15">
         <v>1.2E-2</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15">
@@ -1693,29 +1713,29 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="15">
         <v>1.2E-2</v>
@@ -1725,47 +1745,47 @@
         <v>0.12</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>87</v>
+      <c r="B20" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K20" s="15">
         <v>1.2E-2</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15">
@@ -1773,29 +1793,29 @@
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K21" s="15">
         <v>1.2E-2</v>
@@ -1805,7 +1825,7 @@
         <v>0.24</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15">
@@ -1813,29 +1833,29 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K22" s="15">
         <v>0.1</v>
@@ -1845,7 +1865,7 @@
         <v>0.5</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15">
@@ -1853,31 +1873,31 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="K23" s="15">
         <v>0.54200000000000004</v>
@@ -1892,29 +1912,29 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K24" s="15">
         <v>3.6</v>
@@ -1929,29 +1949,29 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="H25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K25" s="15">
         <v>5.867</v>
@@ -1966,36 +1986,36 @@
         <v>20</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -2006,7 +2026,7 @@
     <row r="29" spans="1:15">
       <c r="L29" s="19">
         <f>SUM(L7:L25)</f>
-        <v>112.43</v>
+        <v>112.67000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
+++ b/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Projects\open_telemetry_HW\pcb\sensors\Open_Telemetry_digitalSensorShield\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F885E0B-A428-4E84-A4DF-EAA5685FEA5C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C62EB58-22CF-4AAD-B6D0-7CD2C764B2D7}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="555" windowWidth="23400" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>package:0201</t>
-  </si>
-  <si>
-    <t>R2, R6</t>
   </si>
   <si>
     <t>RC0201JR-071KL</t>
@@ -504,7 +501,10 @@
     <t>R1, R8, R9, R15, R16, R17, R18</t>
   </si>
   <si>
-    <t>R3, R5, R19, R20</t>
+    <t>R2, R6, R19, R20</t>
+  </si>
+  <si>
+    <t>R3, R5</t>
   </si>
 </sst>
 </file>
@@ -515,12 +515,19 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -669,56 +676,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1175,7 +1182,7 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1195,25 +1202,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="D2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1672,8 +1679,8 @@
       <c r="A18" s="5">
         <v>12</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>122</v>
+      <c r="B18" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="5">
         <v>7</v>
@@ -1688,7 +1695,7 @@
         <v>78</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>18</v>
@@ -1713,36 +1720,36 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="15">
         <v>1.2E-2</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>80</v>
@@ -1752,37 +1759,37 @@
       <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="15">
         <v>1.2E-2</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>80</v>
@@ -1793,7 +1800,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
@@ -1802,10 +1809,10 @@
         <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>23</v>
@@ -1815,7 +1822,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="15">
         <v>1.2E-2</v>
@@ -1825,7 +1832,7 @@
         <v>0.24</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15">
@@ -1833,19 +1840,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>23</v>
@@ -1855,7 +1862,7 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" s="15">
         <v>0.1</v>
@@ -1865,7 +1872,7 @@
         <v>0.5</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15">
@@ -1873,19 +1880,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>39</v>
@@ -1897,7 +1904,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" s="15">
         <v>0.54200000000000004</v>
@@ -1912,29 +1919,29 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K24" s="15">
         <v>3.6</v>
@@ -1949,29 +1956,29 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" s="15">
         <v>5.867</v>
@@ -1986,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
@@ -1995,27 +2002,27 @@
         <v>76</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="G26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>

--- a/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
+++ b/pcb/sensors/Open_Telemetry_digitalSensorShield/Manufacturing/W32271ASH4-5sets-Open_Telemetry_digitalSensorShieldBOM_PCBWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Projects\open_telemetry_HW\pcb\sensors\Open_Telemetry_digitalSensorShield\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C62EB58-22CF-4AAD-B6D0-7CD2C764B2D7}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{E3AADF3C-D13E-4532-A84D-84CF7FAC70BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4A8259E-1D85-448E-9023-77FCF74F3F35}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="555" windowWidth="23400" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>Item #</t>
   </si>
@@ -224,9 +226,6 @@
     <t>SMT</t>
   </si>
   <si>
-    <t>Could not find the generic name of the package</t>
-  </si>
-  <si>
     <t>http://www.molex.com/pdm_docs/sd/734120110_sd.pdf</t>
   </si>
   <si>
@@ -344,9 +343,6 @@
     <t>https://www.ttiinc.com/content/ttiinc/en/apps/part-detail.html?mfrShortname=YAG&amp;partsNumber=RC0201JR-0710KL&amp;utm=top&amp;channel=ppc&amp;source=google&amp;campaigns=tti-brand&amp;gclid=EAIaIQobChMIyPaj4a_v5QIVk5IYCh2q7AznEAAYASAAEgL79_D_BwE</t>
   </si>
   <si>
-    <t>package:0201</t>
-  </si>
-  <si>
     <t>RC0201JR-071KL</t>
   </si>
   <si>
@@ -377,9 +373,6 @@
     <t>https://www.ttiinc.com/content/ttiinc/en/apps/part-detail.html?mfrShortname=YAG&amp;partsNumber=RC0402JR-0762RL&amp;autoRedirect=true&amp;minQty=10000</t>
   </si>
   <si>
-    <t>package:0402</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
@@ -416,16 +409,7 @@
     <t>Bosh</t>
   </si>
   <si>
-    <t>BME280</t>
-  </si>
-  <si>
     <t>Barrometic pressure sensor</t>
-  </si>
-  <si>
-    <t>2.5mmx2.5mmx093mm metal lid LGA</t>
-  </si>
-  <si>
-    <t>https://ae-bst.resource.bosch.com/media/_tech/media/datasheets/BST-BME280-DS002.pdf</t>
   </si>
   <si>
     <t>U2</t>
@@ -505,6 +489,15 @@
   </si>
   <si>
     <t>R3, R5</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>2.5mmx2.0mmx095mm metal lid LGA</t>
+  </si>
+  <si>
+    <t>https://www.bosch-sensortec.com/media/boschsensortec/downloads/environmental_sensors_2/pressure_sensors_1/bmp280/bst-bmp280-ds001.pdf</t>
   </si>
 </sst>
 </file>
@@ -716,6 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,7 +719,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -816,8 +809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7477125" y="47625"/>
-          <a:ext cx="2600326" cy="914400"/>
+          <a:off x="7480487" y="47625"/>
+          <a:ext cx="2599205" cy="908237"/>
           <a:chOff x="9686925" y="238125"/>
           <a:chExt cx="1588169" cy="552450"/>
         </a:xfrm>
@@ -1181,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1202,25 +1195,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="D2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1436,11 +1429,9 @@
       <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="K11" s="15">
         <v>0.53300000000000003</v>
@@ -1455,29 +1446,29 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="15">
         <v>0.4</v>
@@ -1492,29 +1483,29 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="15">
         <v>0.66700000000000004</v>
@@ -1529,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>17</v>
@@ -1551,7 +1542,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="15">
         <v>0.96099999999999997</v>
@@ -1561,7 +1552,7 @@
         <v>4.8049999999999997</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15">
@@ -1569,19 +1560,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>17</v>
@@ -1591,7 +1582,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="15">
         <v>0.33300000000000002</v>
@@ -1606,29 +1597,29 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="15">
         <v>0.66700000000000004</v>
@@ -1643,29 +1634,29 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="15">
         <v>0.11799999999999999</v>
@@ -1680,29 +1671,29 @@
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C18" s="5">
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="15">
         <v>1.2E-2</v>
@@ -1711,38 +1702,36 @@
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="M18" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" s="5">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K19" s="15">
         <v>1.2E-2</v>
@@ -1751,38 +1740,36 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>123</v>
+      <c r="B20" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="15">
         <v>1.2E-2</v>
@@ -1791,28 +1778,26 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="M20" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="5">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>23</v>
@@ -1822,7 +1807,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K21" s="15">
         <v>1.2E-2</v>
@@ -1831,28 +1816,26 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:15" ht="15">
       <c r="A22" s="5">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>23</v>
@@ -1862,7 +1845,7 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K22" s="15">
         <v>0.1</v>
@@ -1871,28 +1854,26 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M22" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" s="5">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>39</v>
@@ -1900,11 +1881,9 @@
       <c r="H23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K23" s="15">
         <v>0.54200000000000004</v>
@@ -1919,36 +1898,36 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K24" s="15">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15">
@@ -1956,29 +1935,29 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K25" s="15">
         <v>5.867</v>
@@ -1993,36 +1972,36 @@
         <v>20</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -2033,7 +2012,7 @@
     <row r="29" spans="1:15">
       <c r="L29" s="19">
         <f>SUM(L7:L25)</f>
-        <v>112.67000000000002</v>
+        <v>102.17000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2049,22 +2028,21 @@
     <hyperlink ref="J11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="J26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
